--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.012621.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.012621.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1235,12 +1235,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2155,12 +2155,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2195,12 +2195,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2355,12 +2355,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2595,12 +2595,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2715,12 +2715,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2755,12 +2755,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2955,12 +2955,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3155,12 +3155,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3475,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3635,12 +3635,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3795,12 +3795,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4199,12 +4199,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4559,12 +4559,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4599,12 +4599,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5519,12 +5519,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5559,12 +5559,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5799,12 +5799,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5879,12 +5879,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6079,12 +6079,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6439,12 +6439,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6479,12 +6479,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6679,12 +6679,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6959,12 +6959,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8119,12 +8119,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8879,12 +8879,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9039,12 +9039,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9479,12 +9479,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9519,12 +9519,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9559,12 +9559,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9599,12 +9599,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9719,12 +9719,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9923,12 +9923,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10243,12 +10243,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10323,12 +10323,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10363,12 +10363,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10763,12 +10763,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10923,12 +10923,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10963,12 +10963,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11283,12 +11283,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13203,12 +13203,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14003,12 +14003,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14083,12 +14083,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14511,12 +14511,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14777,12 +14777,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15043,12 +15043,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15195,12 +15195,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15347,12 +15347,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15689,12 +15689,12 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15727,12 +15727,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15845,12 +15845,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15883,12 +15883,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15921,12 +15921,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15959,12 +15959,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16073,12 +16073,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16111,12 +16111,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16149,12 +16149,12 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16263,12 +16263,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16415,12 +16415,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16453,12 +16453,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17099,12 +17099,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17289,12 +17289,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17631,12 +17631,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17859,12 +17859,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18543,12 +18543,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18775,12 +18775,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19463,12 +19463,12 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19577,12 +19577,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20261,12 +20261,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20451,12 +20451,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20869,12 +20869,12 @@
       <c r="H519" t="inlineStr"/>
       <c r="I519" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21253,12 +21253,12 @@
       <c r="H529" t="inlineStr"/>
       <c r="I529" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21747,12 +21747,12 @@
       <c r="H542" t="inlineStr"/>
       <c r="I542" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21823,12 +21823,12 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21899,12 +21899,12 @@
       <c r="H546" t="inlineStr"/>
       <c r="I546" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22013,12 +22013,12 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22697,12 +22697,12 @@
       <c r="H567" t="inlineStr"/>
       <c r="I567" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22887,12 +22887,12 @@
       <c r="H572" t="inlineStr"/>
       <c r="I572" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23077,12 +23077,12 @@
       <c r="H577" t="inlineStr"/>
       <c r="I577" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23385,12 +23385,12 @@
       <c r="H585" t="inlineStr"/>
       <c r="I585" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23575,12 +23575,12 @@
       <c r="H590" t="inlineStr"/>
       <c r="I590" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24107,12 +24107,12 @@
       <c r="H604" t="inlineStr"/>
       <c r="I604" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25183,12 +25183,12 @@
       </c>
       <c r="I632" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25373,12 +25373,12 @@
       <c r="H637" t="inlineStr"/>
       <c r="I637" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25605,12 +25605,12 @@
       </c>
       <c r="I643" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J643" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25833,12 +25833,12 @@
       <c r="H649" t="inlineStr"/>
       <c r="I649" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25871,12 +25871,12 @@
       <c r="H650" t="inlineStr"/>
       <c r="I650" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27049,12 +27049,12 @@
       <c r="H681" t="inlineStr"/>
       <c r="I681" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
